--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -506,16 +506,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -514,11 +514,7 @@
           <t>Closed</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>2024-08-11</t>
@@ -596,16 +592,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>kbfuyeb</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -633,7 +637,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21:02</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -643,12 +647,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Good </t>
+          <t>jyvcuydvc</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-08-16</t>
         </is>
       </c>
     </row>
@@ -678,16 +682,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>iuihwdb</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
